--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research Project\Stock-and-Index-Price-prediction-with-Sentiment-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF604D7E-941F-4C10-ADB2-8B3DB33B25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E6C18-418C-4710-98AA-5BA05DD9011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B848A0-45BE-4C0A-9E3D-DE721EF7101F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -55,6 +55,23 @@
   </si>
   <si>
     <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>clf1 = DecisionTreeClassifier(criterion='entropy',max_depth=None)
+clf2 = BernoulliNB()
+clf3 = LogisticRegression()
+clf4 = LinearDiscriminantAnalysis()
+clf5 = SVC()
+clf6 = SGDClassifier(loss="hinge", penalty="l2", max_iter=100)
+clf7 = KNeighborsClassifier(n_neighbors=9)
+clf8 = GaussianProcessClassifier()
+clf9 = RandomForestClassifier(n_estimators=100)
+clf10 = AdaBoostClassifier()
+clf11 = GradientBoostingClassifier()
+clf12 = XGBClassifier()</t>
   </si>
 </sst>
 </file>
@@ -104,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -112,6 +129,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,6 +543,50 @@
         <a:xfrm>
           <a:off x="3216089" y="20932588"/>
           <a:ext cx="5525271" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1770689</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2828192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AEF77E-908A-7653-71D3-864D4A587BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3328147" y="24025412"/>
+          <a:ext cx="1143160" cy="2772162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,69 +895,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6E334A-02A5-4AEA-907D-5598DEE6C707}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
